--- a/output/aco_results/aco_zoning_data_for_lstm.xlsx
+++ b/output/aco_results/aco_zoning_data_for_lstm.xlsx
@@ -487,8 +487,12 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>114.19</v>
+      </c>
       <c r="D2" t="n">
         <v>2.1</v>
       </c>
@@ -513,8 +517,12 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>114.19</v>
+      </c>
       <c r="D3" t="n">
         <v>2.1</v>
       </c>
@@ -539,8 +547,12 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C4" t="n">
+        <v>114.13</v>
+      </c>
       <c r="D4" t="n">
         <v>2.2</v>
       </c>
@@ -565,8 +577,12 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="C5" t="n">
+        <v>114.14</v>
+      </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
@@ -591,8 +607,12 @@
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>114.24</v>
+      </c>
       <c r="D6" t="n">
         <v>3.1</v>
       </c>
@@ -617,8 +637,12 @@
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C7" t="n">
+        <v>114.16</v>
+      </c>
       <c r="D7" t="n">
         <v>2.3</v>
       </c>
@@ -643,8 +667,12 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D8" t="n">
         <v>2.2</v>
       </c>
@@ -669,8 +697,12 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C9" t="n">
+        <v>114.19</v>
+      </c>
       <c r="D9" t="n">
         <v>2.6</v>
       </c>
@@ -695,8 +727,12 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>114.15</v>
+      </c>
       <c r="D10" t="n">
         <v>2.5</v>
       </c>

--- a/output/aco_results/aco_zoning_data_for_lstm.xlsx
+++ b/output/aco_results/aco_zoning_data_for_lstm.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -486,7 +490,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="2" t="n">
+        <v>46003.14027777778</v>
+      </c>
       <c r="B2" t="n">
         <v>-8</v>
       </c>
@@ -516,7 +522,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="2" t="n">
+        <v>46003.14027777778</v>
+      </c>
       <c r="B3" t="n">
         <v>-8</v>
       </c>
@@ -546,7 +554,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" s="2" t="n">
+        <v>46003.23680555556</v>
+      </c>
       <c r="B4" t="n">
         <v>-7.97</v>
       </c>
@@ -576,7 +586,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" s="2" t="n">
+        <v>46003.76111111111</v>
+      </c>
       <c r="B5" t="n">
         <v>-7.91</v>
       </c>
@@ -606,7 +618,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" s="2" t="n">
+        <v>46004.62708333333</v>
+      </c>
       <c r="B6" t="n">
         <v>-7.98</v>
       </c>
@@ -636,7 +650,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" s="2" t="n">
+        <v>46004.99583333333</v>
+      </c>
       <c r="B7" t="n">
         <v>-7.97</v>
       </c>
@@ -666,7 +682,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" s="2" t="n">
+        <v>46006.00833333333</v>
+      </c>
       <c r="B8" t="n">
         <v>-7.97</v>
       </c>
@@ -696,7 +714,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" s="2" t="n">
+        <v>46006.48263888889</v>
+      </c>
       <c r="B9" t="n">
         <v>-7.99</v>
       </c>
@@ -726,7 +746,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" s="2" t="n">
+        <v>46006.86041666667</v>
+      </c>
       <c r="B10" t="n">
         <v>-7.96</v>
       </c>

--- a/output/aco_results/aco_zoning_data_for_lstm.xlsx
+++ b/output/aco_results/aco_zoning_data_for_lstm.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,90 +491,90 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46003.14027777778</v>
+        <v>46000.94930555556</v>
       </c>
       <c r="B2" t="n">
-        <v>-8</v>
+        <v>-8.01</v>
       </c>
       <c r="C2" t="n">
-        <v>114.19</v>
+        <v>114.18</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.9450121840697095</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>94.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3.279405314694293</v>
+        <v>5.877254504294055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46003.14027777778</v>
+        <v>46000.94930555556</v>
       </c>
       <c r="B3" t="n">
-        <v>-8</v>
+        <v>-8.01</v>
       </c>
       <c r="C3" t="n">
-        <v>114.19</v>
+        <v>114.18</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.9511983133618672</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>95.12</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3.279405314694293</v>
+        <v>5.88959993921047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46003.23680555556</v>
+        <v>46000.96944444445</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.97</v>
+        <v>-7.96</v>
       </c>
       <c r="C4" t="n">
-        <v>114.13</v>
+        <v>112.77</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3.483850403030317</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46003.76111111111</v>
+        <v>46000.96944444445</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.91</v>
+        <v>-7.96</v>
       </c>
       <c r="C5" t="n">
-        <v>114.14</v>
+        <v>112.77</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.05978295139323081</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>5.98</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -614,167 +614,551 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3.077861033362291</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46004.62708333333</v>
+        <v>46002.14027777778</v>
       </c>
       <c r="B6" t="n">
         <v>-7.98</v>
       </c>
       <c r="C6" t="n">
-        <v>114.24</v>
+        <v>114.15</v>
       </c>
       <c r="D6" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.8662135250639107</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>86.62</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>5.441018655854489</v>
+        <v>3.99418365778594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46004.99583333333</v>
+        <v>46002.14027777778</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.97</v>
+        <v>-7.98</v>
       </c>
       <c r="C7" t="n">
-        <v>114.16</v>
+        <v>114.15</v>
       </c>
       <c r="D7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.7810637733539998</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>78.11</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3.691103301765151</v>
+        <v>3.875524059060939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46006.00833333333</v>
+        <v>46002.91805555556</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.97</v>
+        <v>-7.92</v>
       </c>
       <c r="C8" t="n">
-        <v>114.15</v>
+        <v>114.16</v>
       </c>
       <c r="D8" t="n">
         <v>2.2</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.9175182761045644</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>91.75</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3.483850403030317</v>
+        <v>4.065678888822081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46006.48263888889</v>
+        <v>46002.91805555556</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.99</v>
+        <v>-7.92</v>
       </c>
       <c r="C9" t="n">
-        <v>114.19</v>
+        <v>114.16</v>
       </c>
       <c r="D9" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.8796969689600115</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>87.97</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Aman</t>
+          <t>Terdampak</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4.328878189671251</v>
+        <v>4.012973378366607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46006.86041666667</v>
+        <v>46003.22152777778</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.96</v>
+        <v>-7.98</v>
       </c>
       <c r="C10" t="n">
-        <v>114.15</v>
+        <v>114.18</v>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.7823351233528767</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>78.23</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>5.802792935549129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46003.22152777778</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C11" t="n">
+        <v>114.18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0.8780029949326082</v>
+      </c>
+      <c r="H11" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>6.002316294436578</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>46003.23680555556</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C12" t="n">
+        <v>114.13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0.911968362286605</v>
+      </c>
+      <c r="H12" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>4.057944861025488</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>46003.76111111111</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="C13" t="n">
+        <v>114.14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0.5636424251211228</v>
+      </c>
+      <c r="H13" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>Aman</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>4.113694388544492</v>
+      <c r="J13" t="n">
+        <v>3.156214049501883</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>46004.62708333333</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C14" t="n">
+        <v>114.24</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>6.529222387025386</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>46004.62986111111</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C15" t="n">
+        <v>114.21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0.5371639818466017</v>
+      </c>
+      <c r="H15" t="n">
+        <v>53.72</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>5.063326569954734</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46004.62986111111</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C16" t="n">
+        <v>114.21</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0.6581567157044004</v>
+      </c>
+      <c r="H16" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>5.304787401220269</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>46004.97708333333</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C17" t="n">
+        <v>114.22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0.5146274993287281</v>
+      </c>
+      <c r="H17" t="n">
+        <v>51.46</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>5.018351325334156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>46004.97708333333</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C18" t="n">
+        <v>114.22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0.4953046286158333</v>
+      </c>
+      <c r="H18" t="n">
+        <v>49.53</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>4.979789369785192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>46004.99583333333</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C19" t="n">
+        <v>114.16</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0.7863398500639497</v>
+      </c>
+      <c r="H19" t="n">
+        <v>78.63</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>4.113867288164345</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>46006.00833333333</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C20" t="n">
+        <v>114.15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0.8449057463909231</v>
+      </c>
+      <c r="H20" t="n">
+        <v>84.48999999999999</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>3.964490412458913</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>46006.48263888889</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="C21" t="n">
+        <v>114.19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>5.1946538276055</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>46006.86041666667</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="C22" t="n">
+        <v>114.15</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0.8145592135071086</v>
+      </c>
+      <c r="H22" t="n">
+        <v>81.45999999999999</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>4.631294577132157</v>
       </c>
     </row>
   </sheetData>

--- a/output/aco_results/aco_zoning_data_for_lstm.xlsx
+++ b/output/aco_results/aco_zoning_data_for_lstm.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,90 +491,90 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46000.94930555556</v>
+        <v>46003.14027777778</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.01</v>
+        <v>-8</v>
       </c>
       <c r="C2" t="n">
-        <v>114.18</v>
+        <v>114.19</v>
       </c>
       <c r="D2" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.9450121840697095</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>94.5</v>
+        <v>50</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5.877254504294055</v>
+        <v>3.279405314694293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46000.94930555556</v>
+        <v>46003.14027777778</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.01</v>
+        <v>-8</v>
       </c>
       <c r="C3" t="n">
-        <v>114.18</v>
+        <v>114.19</v>
       </c>
       <c r="D3" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.9511983133618672</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>95.12</v>
+        <v>50</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5.88959993921047</v>
+        <v>3.279405314694293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46000.96944444445</v>
+        <v>46003.23680555556</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.96</v>
+        <v>-7.97</v>
       </c>
       <c r="C4" t="n">
-        <v>112.77</v>
+        <v>114.13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>50</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -582,31 +582,31 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.483850403030317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46000.96944444445</v>
+        <v>46003.76111111111</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.96</v>
+        <v>-7.91</v>
       </c>
       <c r="C5" t="n">
-        <v>112.77</v>
+        <v>114.14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.05978295139323081</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>5.98</v>
+        <v>50</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -614,551 +614,167 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.077861033362291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46002.14027777778</v>
+        <v>46004.62708333333</v>
       </c>
       <c r="B6" t="n">
         <v>-7.98</v>
       </c>
       <c r="C6" t="n">
-        <v>114.15</v>
+        <v>114.24</v>
       </c>
       <c r="D6" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.8662135250639107</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>86.62</v>
+        <v>50</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3.99418365778594</v>
+        <v>5.441018655854489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46002.14027777778</v>
+        <v>46004.99583333333</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.98</v>
+        <v>-7.97</v>
       </c>
       <c r="C7" t="n">
-        <v>114.15</v>
+        <v>114.16</v>
       </c>
       <c r="D7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.7810637733539998</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>78.11</v>
+        <v>50</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3.875524059060939</v>
+        <v>3.691103301765151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46002.91805555556</v>
+        <v>46006.00833333333</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.92</v>
+        <v>-7.97</v>
       </c>
       <c r="C8" t="n">
-        <v>114.16</v>
+        <v>114.15</v>
       </c>
       <c r="D8" t="n">
         <v>2.2</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.9175182761045644</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>91.75</v>
+        <v>50</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4.065678888822081</v>
+        <v>3.483850403030317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46002.91805555556</v>
+        <v>46006.48263888889</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.92</v>
+        <v>-7.99</v>
       </c>
       <c r="C9" t="n">
-        <v>114.16</v>
+        <v>114.19</v>
       </c>
       <c r="D9" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.8796969689600115</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>87.97</v>
+        <v>50</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4.012973378366607</v>
+        <v>4.328878189671251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46003.22152777778</v>
+        <v>46006.86041666667</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.98</v>
+        <v>-7.96</v>
       </c>
       <c r="C10" t="n">
-        <v>114.18</v>
+        <v>114.15</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.7823351233528767</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>78.23</v>
+        <v>50</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Terdampak</t>
+          <t>Aman</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5.802792935549129</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>46003.22152777778</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-7.98</v>
-      </c>
-      <c r="C11" t="n">
-        <v>114.18</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>0.8780029949326082</v>
-      </c>
-      <c r="H11" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Terdampak</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>6.002316294436578</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>46003.23680555556</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-7.97</v>
-      </c>
-      <c r="C12" t="n">
-        <v>114.13</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>0.911968362286605</v>
-      </c>
-      <c r="H12" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Terdampak</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>4.057944861025488</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>46003.76111111111</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.91</v>
-      </c>
-      <c r="C13" t="n">
-        <v>114.14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>0.5636424251211228</v>
-      </c>
-      <c r="H13" t="n">
-        <v>56.36</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Aman</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>3.156214049501883</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>46004.62708333333</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-7.98</v>
-      </c>
-      <c r="C14" t="n">
-        <v>114.24</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Terdampak</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>6.529222387025386</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>46004.62986111111</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-7.99</v>
-      </c>
-      <c r="C15" t="n">
-        <v>114.21</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>0.5371639818466017</v>
-      </c>
-      <c r="H15" t="n">
-        <v>53.72</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Aman</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>5.063326569954734</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>46004.62986111111</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-7.99</v>
-      </c>
-      <c r="C16" t="n">
-        <v>114.21</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>0.6581567157044004</v>
-      </c>
-      <c r="H16" t="n">
-        <v>65.81999999999999</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Aman</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>5.304787401220269</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>46004.97708333333</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-7.99</v>
-      </c>
-      <c r="C17" t="n">
-        <v>114.22</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>0.5146274993287281</v>
-      </c>
-      <c r="H17" t="n">
-        <v>51.46</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Aman</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>5.018351325334156</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>46004.97708333333</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-7.99</v>
-      </c>
-      <c r="C18" t="n">
-        <v>114.22</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>0.4953046286158333</v>
-      </c>
-      <c r="H18" t="n">
-        <v>49.53</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Aman</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>4.979789369785192</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>46004.99583333333</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-7.97</v>
-      </c>
-      <c r="C19" t="n">
-        <v>114.16</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>0.7863398500639497</v>
-      </c>
-      <c r="H19" t="n">
-        <v>78.63</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Terdampak</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>4.113867288164345</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>46006.00833333333</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-7.97</v>
-      </c>
-      <c r="C20" t="n">
-        <v>114.15</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>0.8449057463909231</v>
-      </c>
-      <c r="H20" t="n">
-        <v>84.48999999999999</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Terdampak</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>3.964490412458913</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>46006.48263888889</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-7.99</v>
-      </c>
-      <c r="C21" t="n">
-        <v>114.19</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Terdampak</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>5.1946538276055</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>46006.86041666667</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-7.96</v>
-      </c>
-      <c r="C22" t="n">
-        <v>114.15</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>0.8145592135071086</v>
-      </c>
-      <c r="H22" t="n">
-        <v>81.45999999999999</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Terdampak</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>4.631294577132157</v>
+        <v>4.113694388544492</v>
       </c>
     </row>
   </sheetData>

--- a/output/aco_results/aco_zoning_data_for_lstm.xlsx
+++ b/output/aco_results/aco_zoning_data_for_lstm.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,26 +491,30 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46003.14027777778</v>
+        <v>44565.16041666667</v>
       </c>
       <c r="B2" t="n">
-        <v>-8</v>
+        <v>-8.120653112817681</v>
       </c>
       <c r="C2" t="n">
-        <v>114.19</v>
+        <v>114.0430431181575</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>3.52</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.4104249848816458</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>41.04</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -518,31 +522,35 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3.279405314694293</v>
+        <v>6.188267621025323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46003.14027777778</v>
+        <v>44566.56527777778</v>
       </c>
       <c r="B3" t="n">
-        <v>-8</v>
+        <v>-7.877878372092454</v>
       </c>
       <c r="C3" t="n">
-        <v>114.19</v>
+        <v>113.0102125479923</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>3.59</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.1296586303888683</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>12.97</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -550,31 +558,35 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3.279405314694293</v>
+        <v>5.609223980918246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46003.23680555556</v>
+        <v>44570.5375</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.97</v>
+        <v>-7.914582772778076</v>
       </c>
       <c r="C4" t="n">
-        <v>114.13</v>
+        <v>112.2972084053225</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.3017578818267869</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>30.18</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -582,31 +594,35 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3.483850403030317</v>
+        <v>6.751707703323689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46003.76111111111</v>
+        <v>44570.60902777778</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.91</v>
+        <v>-8.103611631905009</v>
       </c>
       <c r="C5" t="n">
-        <v>114.14</v>
+        <v>114.0559746660739</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.019177678483136</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>1.92</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -614,31 +630,35 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3.077861033362291</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46004.62708333333</v>
+        <v>44572.13125</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.98</v>
+        <v>-7.935504592414176</v>
       </c>
       <c r="C6" t="n">
-        <v>114.24</v>
+        <v>112.9528861897165</v>
       </c>
       <c r="D6" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.5074566268531121</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>50.75</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -646,31 +666,35 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>5.441018655854489</v>
+        <v>3.391356393890791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46004.99583333333</v>
+        <v>44572.94166666667</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.97</v>
+        <v>-7.877175259824345</v>
       </c>
       <c r="C7" t="n">
-        <v>114.16</v>
+        <v>113.0042268670792</v>
       </c>
       <c r="D7" t="n">
-        <v>2.3</v>
+        <v>2.97</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.1394047106962616</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>13.94</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -678,31 +702,35 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3.691103301765151</v>
+        <v>4.4039901218539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46006.00833333333</v>
+        <v>44594.53263888889</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.97</v>
+        <v>-8.129788267218117</v>
       </c>
       <c r="C8" t="n">
-        <v>114.15</v>
+        <v>114.0456054777548</v>
       </c>
       <c r="D8" t="n">
-        <v>2.2</v>
+        <v>3.69</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.3020358034617456</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>30.2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -710,31 +738,35 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3.483850403030317</v>
+        <v>6.283713191535921</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46006.48263888889</v>
+        <v>44599.87291666667</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.99</v>
+        <v>-8.081589506894471</v>
       </c>
       <c r="C9" t="n">
-        <v>114.19</v>
+        <v>114.2425090210902</v>
       </c>
       <c r="D9" t="n">
-        <v>2.6</v>
+        <v>5.65</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.6216941151145783</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>62.17</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -742,39 +774,7999 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4.328878189671251</v>
+        <v>12.4513088485146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44599.98680555556</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-7.925336968794523</v>
+      </c>
+      <c r="C10" t="n">
+        <v>112.3294332196857</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2390435614664752</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44600.22430555556</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-8.043423679554209</v>
+      </c>
+      <c r="C11" t="n">
+        <v>112.906377108392</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4067287676115063</v>
+      </c>
+      <c r="H11" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>9.54886573959636</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44602.42152777778</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-8.045595230508807</v>
+      </c>
+      <c r="C12" t="n">
+        <v>114.2080836608827</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E12" t="n">
+        <v>26</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7660921208346336</v>
+      </c>
+      <c r="H12" t="n">
+        <v>76.61</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>12.56571135655981</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44602.8875</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-8.003837694925195</v>
+      </c>
+      <c r="C13" t="n">
+        <v>112.9348997433124</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>4.407875840806431</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44621.53333333333</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-7.868128963606708</v>
+      </c>
+      <c r="C14" t="n">
+        <v>112.369014268496</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.302253119486436</v>
+      </c>
+      <c r="H14" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>6.0638138073843</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44621.58055555556</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-8.141551831137674</v>
+      </c>
+      <c r="C15" t="n">
+        <v>114.0651860489784</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E15" t="n">
+        <v>49</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04136998861330132</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>3.605594104328716</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44621.81597222222</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-8.133701421527677</v>
+      </c>
+      <c r="C16" t="n">
+        <v>114.0581574221127</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.09380080905660081</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44624.83819444444</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-8.086637108866251</v>
+      </c>
+      <c r="C17" t="n">
+        <v>112.9748634504888</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2997827184663218</v>
+      </c>
+      <c r="H17" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>5.557735459545658</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44627.70486111111</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-7.945309070306905</v>
+      </c>
+      <c r="C18" t="n">
+        <v>112.3216230085198</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5282126979648439</v>
+      </c>
+      <c r="H18" t="n">
+        <v>52.82</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>4.553641588240297</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44629.40416666667</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-8.037398223899373</v>
+      </c>
+      <c r="C19" t="n">
+        <v>114.2723186963029</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>32</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4222016853936953</v>
+      </c>
+      <c r="H19" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>8.066577275351367</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44630.06805555556</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-7.972056007868172</v>
+      </c>
+      <c r="C20" t="n">
+        <v>112.2964058616427</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="E20" t="n">
+        <v>45</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3884672897706238</v>
+      </c>
+      <c r="H20" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>8.953987454815937</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44653.20694444444</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-7.993411853462411</v>
+      </c>
+      <c r="C21" t="n">
+        <v>112.912157511184</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02460116967516356</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>3.860245527789303</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44654.87152777778</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-8.091258000767896</v>
+      </c>
+      <c r="C22" t="n">
+        <v>112.8871094064781</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>61</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03124698282123643</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>4.053686278004628</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44655.22916666666</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-8.06026167336589</v>
+      </c>
+      <c r="C23" t="n">
+        <v>114.0313091168393</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>61</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1452738882693961</v>
+      </c>
+      <c r="H23" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>9.283980474561217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44662.22152777778</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-8.115549121861777</v>
+      </c>
+      <c r="C24" t="n">
+        <v>114.0741115353676</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2042168886913402</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>6.122903472246905</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44689.9</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-8.170181557199566</v>
+      </c>
+      <c r="C25" t="n">
+        <v>112.9778083073995</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1796549731793984</v>
+      </c>
+      <c r="H25" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>6.32968374546232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44691.37222222222</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-7.885866609616146</v>
+      </c>
+      <c r="C26" t="n">
+        <v>112.9650242144303</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E26" t="n">
+        <v>40</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2356177755824386</v>
+      </c>
+      <c r="H26" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>8.659619872079249</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44691.72708333333</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-8.109960666189982</v>
+      </c>
+      <c r="C27" t="n">
+        <v>114.0703534888758</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E27" t="n">
+        <v>61</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.318073755192141</v>
+      </c>
+      <c r="H27" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>11.33974906561121</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44693.50763888889</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-8.141732252021846</v>
+      </c>
+      <c r="C28" t="n">
+        <v>113.9927001308411</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05090151982158309</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44713.90486111111</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-7.951727155089354</v>
+      </c>
+      <c r="C29" t="n">
+        <v>112.9363494824208</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3412827540750247</v>
+      </c>
+      <c r="H29" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>5.031572775139096</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44717.98541666667</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-7.913397644711904</v>
+      </c>
+      <c r="C30" t="n">
+        <v>112.3240040525849</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02178944960922298</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-7.996996362540687</v>
+      </c>
+      <c r="C31" t="n">
+        <v>114.1717563019548</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E31" t="n">
+        <v>47</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0.4556442745511034</v>
+      </c>
+      <c r="H31" t="n">
+        <v>45.56</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>12.31077354344922</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44721.78472222222</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-8.153370871948999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>112.9536839000561</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E32" t="n">
+        <v>61</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>3.188808862868305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44723.90763888889</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-8.060757472991952</v>
+      </c>
+      <c r="C33" t="n">
+        <v>112.8944085830006</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E33" t="n">
+        <v>28</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6817158924069956</v>
+      </c>
+      <c r="H33" t="n">
+        <v>68.17</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>13.59268174374173</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44724.38888888889</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-7.914666619357855</v>
+      </c>
+      <c r="C34" t="n">
+        <v>112.9723418998253</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E34" t="n">
+        <v>40</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0.08959600663141215</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>4.376921707769432</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44746.78680555556</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-7.860213556390638</v>
+      </c>
+      <c r="C35" t="n">
+        <v>112.2786635463538</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E35" t="n">
+        <v>39</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0.288075489059651</v>
+      </c>
+      <c r="H35" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>7.23061803797632</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44746.84305555555</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-7.915206871235005</v>
+      </c>
+      <c r="C36" t="n">
+        <v>112.378159646595</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E36" t="n">
+        <v>38</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1976508339726152</v>
+      </c>
+      <c r="H36" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>6.510869820028145</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44747.07916666667</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-8.161964544652097</v>
+      </c>
+      <c r="C37" t="n">
+        <v>114.0140996009133</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E37" t="n">
+        <v>36</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.08507410241808791</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>4.961020336546778</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44748.20277777778</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-7.915169953097054</v>
+      </c>
+      <c r="C38" t="n">
+        <v>112.3012598095605</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1584201917104024</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44749.95208333333</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-7.993102102037696</v>
+      </c>
+      <c r="C39" t="n">
+        <v>112.3212659107985</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E39" t="n">
+        <v>66</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3815221427150591</v>
+      </c>
+      <c r="H39" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>11.93918031675598</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44753.24375</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-8.13114692389815</v>
+      </c>
+      <c r="C40" t="n">
+        <v>112.9035975786973</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1263969032786581</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44753.72777777778</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-7.931266766346668</v>
+      </c>
+      <c r="C41" t="n">
+        <v>112.9322956785745</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E41" t="n">
+        <v>14</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1571414763675054</v>
+      </c>
+      <c r="H41" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>3.041637825598039</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44775.43888888889</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-7.984972858877901</v>
+      </c>
+      <c r="C42" t="n">
+        <v>112.3053919701103</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E42" t="n">
+        <v>61</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2899892580626325</v>
+      </c>
+      <c r="H42" t="n">
+        <v>29</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>6.250830542133591</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44775.69375</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-7.883216115225961</v>
+      </c>
+      <c r="C43" t="n">
+        <v>112.968124654109</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E43" t="n">
+        <v>41</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1290092851037701</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>6.307508948491389</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44776.79861111111</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-8.095052704005203</v>
+      </c>
+      <c r="C44" t="n">
+        <v>112.9458030657855</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E44" t="n">
+        <v>35</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3729505560824439</v>
+      </c>
+      <c r="H44" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>7.216828383676795</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44777.44930555556</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-7.982819609687915</v>
+      </c>
+      <c r="C45" t="n">
+        <v>112.9834356040801</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E45" t="n">
+        <v>42</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1494208432498798</v>
+      </c>
+      <c r="H45" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>6.116372523892082</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44778.44583333333</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-8.100908163238753</v>
+      </c>
+      <c r="C46" t="n">
+        <v>112.8868846261678</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1531311970331831</v>
+      </c>
+      <c r="H46" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>3.305318753539374</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44778.72916666666</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-8.129631120404412</v>
+      </c>
+      <c r="C47" t="n">
+        <v>114.0422691810547</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0.2143560560154516</v>
+      </c>
+      <c r="H47" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>3.474078391599187</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44806.45972222222</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-8.056279965885585</v>
+      </c>
+      <c r="C48" t="n">
+        <v>114.2463168959872</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5929197009904815</v>
+      </c>
+      <c r="H48" t="n">
+        <v>59.29</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>6.804669028781285</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44806.56944444445</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-7.976324463047001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>112.317223945895</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E49" t="n">
+        <v>22</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2580941049313717</v>
+      </c>
+      <c r="H49" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>4.22565316521916</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44811.62361111111</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-7.937198360909793</v>
+      </c>
+      <c r="C50" t="n">
+        <v>112.3424234886226</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E50" t="n">
+        <v>19</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6185468239992119</v>
+      </c>
+      <c r="H50" t="n">
+        <v>61.85</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>10.55427714508087</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44815.88958333333</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-8.102013415378096</v>
+      </c>
+      <c r="C51" t="n">
+        <v>112.980625825374</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0.3010899869116992</v>
+      </c>
+      <c r="H51" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>3.397424339339401</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44815.98194444444</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-7.920552714165222</v>
+      </c>
+      <c r="C52" t="n">
+        <v>112.3001400150644</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E52" t="n">
+        <v>64</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0.4689943448593995</v>
+      </c>
+      <c r="H52" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>10.29051878318936</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44816.59791666667</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-7.990836427963495</v>
+      </c>
+      <c r="C53" t="n">
+        <v>112.8846342966832</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0.6779745775535954</v>
+      </c>
+      <c r="H53" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>12.80646569927859</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44836.07083333333</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-8.137538522924284</v>
+      </c>
+      <c r="C54" t="n">
+        <v>114.0223271833387</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0.1870603238886864</v>
+      </c>
+      <c r="H54" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>5.67711413177504</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44837.05</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-8.137324681393752</v>
+      </c>
+      <c r="C55" t="n">
+        <v>114.0389350510227</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E55" t="n">
+        <v>39</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3477717762331943</v>
+      </c>
+      <c r="H55" t="n">
+        <v>34.78</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>9.31494972768084</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44838.70208333333</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-8.073974807211206</v>
+      </c>
+      <c r="C56" t="n">
+        <v>112.859493974416</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E56" t="n">
+        <v>29</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0.5890125759812831</v>
+      </c>
+      <c r="H56" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>11.39854809606793</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44839.75833333333</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-7.927198291889965</v>
+      </c>
+      <c r="C57" t="n">
+        <v>113.0185524691767</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E57" t="n">
+        <v>16</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.102765747969832</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>4.480749754337961</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44845.71388888889</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-8.114019876998855</v>
+      </c>
+      <c r="C58" t="n">
+        <v>114.0473049388875</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E58" t="n">
+        <v>15</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0.1287382012619879</v>
+      </c>
+      <c r="H58" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>3.557532986831703</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44845.74652777778</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-8.13193327164219</v>
+      </c>
+      <c r="C59" t="n">
+        <v>114.0575897605576</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0805237053935027</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44869.67430555556</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-8.19610872424601</v>
+      </c>
+      <c r="C60" t="n">
+        <v>114.0081433673354</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E60" t="n">
+        <v>64</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0.06910421745351616</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>5.787574156144121</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44871.64027777778</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-7.933260307284476</v>
+      </c>
+      <c r="C61" t="n">
+        <v>112.9699116803497</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E61" t="n">
+        <v>61</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0.01745812260849557</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44875.28472222222</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-8.042215094401644</v>
+      </c>
+      <c r="C62" t="n">
+        <v>112.9837314239681</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0.2815613322487799</v>
+      </c>
+      <c r="H62" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>7.552296848642655</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44897.51111111111</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-7.931789743513793</v>
+      </c>
+      <c r="C63" t="n">
+        <v>112.8807586637624</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E63" t="n">
+        <v>21</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0.3036911088163463</v>
+      </c>
+      <c r="H63" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>9.699372716441866</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44898.11875</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-7.951682008622979</v>
+      </c>
+      <c r="C64" t="n">
+        <v>112.9546779864826</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0.6453317391129731</v>
+      </c>
+      <c r="H64" t="n">
+        <v>64.53</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>5.540980111193988</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44898.42430555556</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-8.161151891053962</v>
+      </c>
+      <c r="C65" t="n">
+        <v>114.0206328292749</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E65" t="n">
+        <v>32</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0.2215324355347935</v>
+      </c>
+      <c r="H65" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>8.651410574949027</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44898.48888888889</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-8.159233256599107</v>
+      </c>
+      <c r="C66" t="n">
+        <v>114.0268457541324</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0.1769378182526445</v>
+      </c>
+      <c r="H66" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>4.189284638439895</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44899.97222222222</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-7.944606552034854</v>
+      </c>
+      <c r="C67" t="n">
+        <v>112.3641714778499</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E67" t="n">
+        <v>51</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0.06763862614910751</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>4.163344494976236</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44901.08333333334</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-8.00237556905056</v>
+      </c>
+      <c r="C68" t="n">
+        <v>114.1763449035899</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>51</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0.292373301873154</v>
+      </c>
+      <c r="H68" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>4.989138360669833</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44901.72361111111</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-8.120754787252373</v>
+      </c>
+      <c r="C69" t="n">
+        <v>114.2937465669942</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E69" t="n">
+        <v>42</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0.07570910311292443</v>
+      </c>
+      <c r="H69" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>7.588764269468765</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44901.82430555556</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-8.055919818490914</v>
+      </c>
+      <c r="C70" t="n">
+        <v>112.9482974274751</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E70" t="n">
+        <v>27</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0.05122781907409796</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>3.498621514842094</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44902.6625</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-7.865432594562226</v>
+      </c>
+      <c r="C71" t="n">
+        <v>112.2821787533944</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0.3667343212620543</v>
+      </c>
+      <c r="H71" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>5.587115313498457</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44906.80416666667</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-8.107953463374733</v>
+      </c>
+      <c r="C72" t="n">
+        <v>114.1999741141021</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E72" t="n">
+        <v>16</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2570100995526032</v>
+      </c>
+      <c r="H72" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>5.815815542852537</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44907.85486111111</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-7.928824120921118</v>
+      </c>
+      <c r="C73" t="n">
+        <v>112.9317910738541</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E73" t="n">
+        <v>15</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0.1335655915387413</v>
+      </c>
+      <c r="H73" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44927.85625</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-7.933097997868748</v>
+      </c>
+      <c r="C74" t="n">
+        <v>112.3045871595133</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0.5390388223930814</v>
+      </c>
+      <c r="H74" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>7.646933956934811</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44928.81736111111</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-7.909467106458559</v>
+      </c>
+      <c r="C75" t="n">
+        <v>112.8991604130075</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>100</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>12.37660715325294</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44929.11666666667</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-8.109648246476196</v>
+      </c>
+      <c r="C76" t="n">
+        <v>114.2161752269457</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E76" t="n">
+        <v>29</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0.4505956512961258</v>
+      </c>
+      <c r="H76" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>11.07950180159535</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44931.15833333333</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-7.921085923241636</v>
+      </c>
+      <c r="C77" t="n">
+        <v>112.9573253569097</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0.5431140610161198</v>
+      </c>
+      <c r="H77" t="n">
+        <v>54.31</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>3.294717471408334</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44931.31666666667</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-8.093634172058961</v>
+      </c>
+      <c r="C78" t="n">
+        <v>114.2612043963876</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E78" t="n">
+        <v>26</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0.02476100983581092</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>3.717777106262854</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44936.57916666667</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-7.936623599412356</v>
+      </c>
+      <c r="C79" t="n">
+        <v>112.3152470988132</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0.2376071367937199</v>
+      </c>
+      <c r="H79" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>3.720270734792368</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44958.41736111111</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-7.961737589078757</v>
+      </c>
+      <c r="C80" t="n">
+        <v>112.3227400106372</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E80" t="n">
+        <v>19</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0.4948243667926949</v>
+      </c>
+      <c r="H80" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>8.865228760428259</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44958.53888888889</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-7.967316261632204</v>
+      </c>
+      <c r="C81" t="n">
+        <v>112.9156216941466</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E81" t="n">
+        <v>29</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5644502149244125</v>
+      </c>
+      <c r="H81" t="n">
+        <v>56.45</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>9.746603863552004</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44958.75763888889</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-8.080182448284257</v>
+      </c>
+      <c r="C82" t="n">
+        <v>113.9967946239974</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E82" t="n">
+        <v>31</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01590884578807978</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44961.33263888889</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-8.12429269620722</v>
+      </c>
+      <c r="C83" t="n">
+        <v>112.8563779390882</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E83" t="n">
+        <v>51</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0.115030444799645</v>
+      </c>
+      <c r="H83" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>4.855678306418907</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44961.76319444444</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-7.887505866898461</v>
+      </c>
+      <c r="C84" t="n">
+        <v>112.3071757593362</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E84" t="n">
+        <v>19</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0.06564823849451248</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>3.434369940854806</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44963.30625</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-8.013560890505863</v>
+      </c>
+      <c r="C85" t="n">
+        <v>114.2595333597331</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E85" t="n">
+        <v>35</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0.6907489696446621</v>
+      </c>
+      <c r="H85" t="n">
+        <v>69.06999999999999</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>13.57880043803678</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44966.37847222222</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-8.043538215165899</v>
+      </c>
+      <c r="C86" t="n">
+        <v>112.9821663959665</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E86" t="n">
+        <v>45</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0.2367908053451253</v>
+      </c>
+      <c r="H86" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>8.78094267173133</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44967.58958333333</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-7.954753819850638</v>
+      </c>
+      <c r="C87" t="n">
+        <v>112.9438227544734</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E87" t="n">
+        <v>16</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0.3118398625518385</v>
+      </c>
+      <c r="H87" t="n">
+        <v>31.18</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>5.979047351714025</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44967.77708333333</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-8.158878294224259</v>
+      </c>
+      <c r="C88" t="n">
+        <v>114.0351296200723</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E88" t="n">
+        <v>48</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0.1445079141856249</v>
+      </c>
+      <c r="H88" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>6.164931413699442</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44968.87777777778</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-7.934411621034083</v>
+      </c>
+      <c r="C89" t="n">
+        <v>112.3142821225179</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E89" t="n">
+        <v>12</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0.2134059103531675</v>
+      </c>
+      <c r="H89" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44969.51180555556</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-7.923871224857676</v>
+      </c>
+      <c r="C90" t="n">
+        <v>112.3295028789582</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E90" t="n">
+        <v>16</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04931463747398279</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44969.7375</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-8.080457742260869</v>
+      </c>
+      <c r="C91" t="n">
+        <v>112.9431577065503</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0.3848948974937639</v>
+      </c>
+      <c r="H91" t="n">
+        <v>38.49</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>4.995462383380347</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44986.66319444445</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-8.069902776836065</v>
+      </c>
+      <c r="C92" t="n">
+        <v>114.2482775476614</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0.4511625156806572</v>
+      </c>
+      <c r="H92" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>6.200049088858052</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44991.49097222222</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-7.982372891989708</v>
+      </c>
+      <c r="C93" t="n">
+        <v>112.9505698071172</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E93" t="n">
+        <v>57</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04695394533250485</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>3.66895779211266</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44992.88194444445</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-8.0428484234336</v>
+      </c>
+      <c r="C94" t="n">
+        <v>114.2535272359965</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0.6326309546173486</v>
+      </c>
+      <c r="H94" t="n">
+        <v>63.26</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>5.971108456766342</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44996.69930555556</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-8.070306252456987</v>
+      </c>
+      <c r="C95" t="n">
+        <v>114.2424891052844</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E95" t="n">
+        <v>13</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0.4755419030518779</v>
+      </c>
+      <c r="H95" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>7.431353918393235</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44996.91805555556</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-7.995224684212083</v>
+      </c>
+      <c r="C96" t="n">
+        <v>112.3672499414483</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E96" t="n">
+        <v>31</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0.3989957970572816</v>
+      </c>
+      <c r="H96" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>12.23956891334287</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45018.43541666667</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-8.120705139154689</v>
+      </c>
+      <c r="C97" t="n">
+        <v>112.9004886844543</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E97" t="n">
+        <v>15</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0.39103245821859</v>
+      </c>
+      <c r="H97" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>5.800619085075222</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45019.125</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-7.997439911934482</v>
+      </c>
+      <c r="C98" t="n">
+        <v>112.8914132757279</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0.6226399765840208</v>
+      </c>
+      <c r="H98" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>9.561364707077713</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45021.59722222222</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-7.959772835551831</v>
+      </c>
+      <c r="C99" t="n">
+        <v>112.9859702775955</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E99" t="n">
+        <v>64</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0.5657864253032771</v>
+      </c>
+      <c r="H99" t="n">
+        <v>56.58</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>13.11903970972829</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45022.84513888889</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-8.047504739488765</v>
+      </c>
+      <c r="C100" t="n">
+        <v>114.2590764477649</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0.735741141273306</v>
+      </c>
+      <c r="H100" t="n">
+        <v>73.56999999999999</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>7.493888848245407</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45024.24791666667</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-7.99009740573159</v>
+      </c>
+      <c r="C101" t="n">
+        <v>114.2240381986261</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0.3246948851158743</v>
+      </c>
+      <c r="H101" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>6.592568332712221</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45025.57847222222</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-8.006428465301763</v>
+      </c>
+      <c r="C102" t="n">
+        <v>112.957571268445</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E102" t="n">
+        <v>55</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0.1919957148954913</v>
+      </c>
+      <c r="H102" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>5.297253611841682</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45025.99652777778</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-7.98603707747391</v>
+      </c>
+      <c r="C103" t="n">
+        <v>112.9695787543388</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E103" t="n">
+        <v>37</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0.4096326209789384</v>
+      </c>
+      <c r="H103" t="n">
+        <v>40.96</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>9.61094012955143</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45028.96111111111</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-8.125570186686359</v>
+      </c>
+      <c r="C104" t="n">
+        <v>114.039503448289</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0.3765131129159554</v>
+      </c>
+      <c r="H104" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>6.62446587656376</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45047.37847222222</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-7.939570036555462</v>
+      </c>
+      <c r="C105" t="n">
+        <v>112.9548927790628</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E105" t="n">
+        <v>31</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0.1559043973570935</v>
+      </c>
+      <c r="H105" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>3.400630756807359</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45047.50069444445</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-7.923955189158407</v>
+      </c>
+      <c r="C106" t="n">
+        <v>112.9675009307056</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>19</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0.1277946359110884</v>
+      </c>
+      <c r="H106" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>4.057001374076905</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45047.5875</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-8.139529904677619</v>
+      </c>
+      <c r="C107" t="n">
+        <v>114.0987329891958</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E107" t="n">
+        <v>57</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0.02763838501511226</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45048.26388888889</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-7.980185731352319</v>
+      </c>
+      <c r="C108" t="n">
+        <v>112.358314769575</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E108" t="n">
+        <v>29</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0.3071946802367985</v>
+      </c>
+      <c r="H108" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>8.127827714784733</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45048.26875</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-8.110785502030163</v>
+      </c>
+      <c r="C109" t="n">
+        <v>112.9094296978397</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0.9341464795166374</v>
+      </c>
+      <c r="H109" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>7.173174617568189</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45052.09097222222</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-8.068760807996084</v>
+      </c>
+      <c r="C110" t="n">
+        <v>114.2578789329176</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E110" t="n">
+        <v>17</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0.211097548915771</v>
+      </c>
+      <c r="H110" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>4.373087242748134</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45054.46666666667</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-8.09891544718624</v>
+      </c>
+      <c r="C111" t="n">
+        <v>112.8594848250778</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E111" t="n">
+        <v>53</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0.07932771063307187</v>
+      </c>
+      <c r="H111" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45055.76111111111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-7.958817518568557</v>
+      </c>
+      <c r="C112" t="n">
+        <v>112.302005849796</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E112" t="n">
+        <v>26</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0.3660885382031616</v>
+      </c>
+      <c r="H112" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>11.23735182615324</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45057.22986111111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-8.093312953188155</v>
+      </c>
+      <c r="C113" t="n">
+        <v>114.0928197180545</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E113" t="n">
+        <v>41</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0.08989973771278197</v>
+      </c>
+      <c r="H113" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>9.561796655272159</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45058.40972222222</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-7.927652955567554</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112.9134293445472</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E114" t="n">
+        <v>45</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0.2738731564774215</v>
+      </c>
+      <c r="H114" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>7.208363560374901</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45078.81666666667</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-7.935361500969635</v>
+      </c>
+      <c r="C115" t="n">
+        <v>112.9612523425547</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E115" t="n">
+        <v>8</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0.2822985090872107</v>
+      </c>
+      <c r="H115" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>3.677545800059572</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45079.10347222222</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-8.120512479088323</v>
+      </c>
+      <c r="C116" t="n">
+        <v>112.9025896124498</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0.413159544165536</v>
+      </c>
+      <c r="H116" t="n">
+        <v>41.32</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>6.540665267643101</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45081.86388888889</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-8.048704554224923</v>
+      </c>
+      <c r="C117" t="n">
+        <v>114.2543771839848</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>18</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0.4470301069419921</v>
+      </c>
+      <c r="H117" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>6.468484890657083</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45082.59444444445</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-8.084295716091082</v>
+      </c>
+      <c r="C118" t="n">
+        <v>112.9511707459142</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E118" t="n">
+        <v>38</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0.2255781507765939</v>
+      </c>
+      <c r="H118" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>5.420065860134014</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45082.85</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-8.024709080058711</v>
+      </c>
+      <c r="C119" t="n">
+        <v>114.2836992235907</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.776843031464087</v>
+      </c>
+      <c r="H119" t="n">
+        <v>77.68000000000001</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>13.43143280328731</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45084.31180555555</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-8.077559400849289</v>
+      </c>
+      <c r="C120" t="n">
+        <v>112.9761535369862</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>100</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>12.88675151915076</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45085.98472222222</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-8.105546881467296</v>
+      </c>
+      <c r="C121" t="n">
+        <v>112.937424197963</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>13</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0.2136515440761507</v>
+      </c>
+      <c r="H121" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>4.220702131904273</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45086.00555555556</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-8.070984033972547</v>
+      </c>
+      <c r="C122" t="n">
+        <v>112.9276738871569</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="E122" t="n">
+        <v>50</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0.5131906181605639</v>
+      </c>
+      <c r="H122" t="n">
+        <v>51.32</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>11.60748429781315</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45086.17291666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-7.929489174697716</v>
+      </c>
+      <c r="C123" t="n">
+        <v>112.9404130186434</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0.2857252362925463</v>
+      </c>
+      <c r="H123" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45087.99652777778</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-7.992345360665358</v>
+      </c>
+      <c r="C124" t="n">
+        <v>113.0134757480393</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="E124" t="n">
+        <v>25</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0.1530629762496671</v>
+      </c>
+      <c r="H124" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>5.527543891853758</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45108.89861111111</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-8.166266166040799</v>
+      </c>
+      <c r="C125" t="n">
+        <v>112.9367299666397</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E125" t="n">
+        <v>61</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0.2369499274564061</v>
+      </c>
+      <c r="H125" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>9.609005958637674</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45109.78472222222</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-7.950543674305526</v>
+      </c>
+      <c r="C126" t="n">
+        <v>112.9692033850888</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>17</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0.3507290864766965</v>
+      </c>
+      <c r="H126" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>6.213922556475965</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45113.18055555555</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-7.934186750604621</v>
+      </c>
+      <c r="C127" t="n">
+        <v>112.9562886139061</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E127" t="n">
+        <v>19</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0.2255118402075243</v>
+      </c>
+      <c r="H127" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>4.145075214776631</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45116.11666666667</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-8.116440865170155</v>
+      </c>
+      <c r="C128" t="n">
+        <v>112.9295468483948</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0.3465369999666411</v>
+      </c>
+      <c r="H128" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>3.76108648953205</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45117.84444444445</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-7.923149945920946</v>
+      </c>
+      <c r="C129" t="n">
+        <v>112.9424547703195</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>15</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0.2750224074170696</v>
+      </c>
+      <c r="H129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>6.013799350705114</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45119.45347222222</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-8.058871949066901</v>
+      </c>
+      <c r="C130" t="n">
+        <v>114.2288635129799</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0.7209503794034688</v>
+      </c>
+      <c r="H130" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>6.959689711239625</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45147.65555555555</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-7.953108116697713</v>
+      </c>
+      <c r="C131" t="n">
+        <v>112.9688514545096</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E131" t="n">
+        <v>16</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0.2475976192372986</v>
+      </c>
+      <c r="H131" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>4.048217145981268</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45171.05347222222</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-8.046046854692253</v>
+      </c>
+      <c r="C132" t="n">
+        <v>114.2527912577698</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E132" t="n">
+        <v>14</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0.3726769543843096</v>
+      </c>
+      <c r="H132" t="n">
+        <v>37.27</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>3.944839329195425</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45178.41666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-8.116630846295099</v>
+      </c>
+      <c r="C133" t="n">
+        <v>112.9157900552392</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E133" t="n">
+        <v>10</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0.3524398939241064</v>
+      </c>
+      <c r="H133" t="n">
+        <v>35.24</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>5.270667031437974</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45179.00347222222</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-7.944369321974327</v>
+      </c>
+      <c r="C134" t="n">
+        <v>112.8909131353232</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>44</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0.4039540137570629</v>
+      </c>
+      <c r="H134" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>9.993954983173774</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45179.16041666667</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-8.041352903252541</v>
+      </c>
+      <c r="C135" t="n">
+        <v>114.2411902385016</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0.007418138670313199</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45180.05069444444</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-8.108727894568853</v>
+      </c>
+      <c r="C136" t="n">
+        <v>112.9366767411304</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E136" t="n">
+        <v>16</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0.2826617327893832</v>
+      </c>
+      <c r="H136" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>4.822663715734358</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45204.79861111111</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-7.998278529635376</v>
+      </c>
+      <c r="C137" t="n">
+        <v>114.213136519281</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E137" t="n">
+        <v>31</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0.4099383218376081</v>
+      </c>
+      <c r="H137" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>10.35209211000014</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45209.92013888889</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-8.090731496988115</v>
+      </c>
+      <c r="C138" t="n">
+        <v>112.9287664732772</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E138" t="n">
+        <v>17</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0.302734700011328</v>
+      </c>
+      <c r="H138" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>5.564869321530474</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45233.29791666667</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-8.135383703254382</v>
+      </c>
+      <c r="C139" t="n">
+        <v>114.0405821254522</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0.2380246224378266</v>
+      </c>
+      <c r="H139" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>5.639793229482279</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45235.03125</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-8.100295685715748</v>
+      </c>
+      <c r="C140" t="n">
+        <v>114.0327752056878</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0.209785440947977</v>
+      </c>
+      <c r="H140" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>4.829571699887992</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45235.33194444444</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-8.015710835960865</v>
+      </c>
+      <c r="C141" t="n">
+        <v>114.2109197957987</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0.9638573246948469</v>
+      </c>
+      <c r="H141" t="n">
+        <v>96.39</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>13.17631198303351</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45236.75277777778</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-8.009654510256118</v>
+      </c>
+      <c r="C142" t="n">
+        <v>112.9580363505543</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E142" t="n">
+        <v>25</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0.4216155214152589</v>
+      </c>
+      <c r="H142" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>9.939258536657267</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45237.89375</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-7.931839109862218</v>
+      </c>
+      <c r="C143" t="n">
+        <v>112.3282736588067</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E143" t="n">
+        <v>14</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0.1218248589823631</v>
+      </c>
+      <c r="H143" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45238.29305555556</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-8.107079584083735</v>
+      </c>
+      <c r="C144" t="n">
+        <v>112.9565490954753</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E144" t="n">
+        <v>43</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0.4052219739301506</v>
+      </c>
+      <c r="H144" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>7.72065832831047</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45239.67638888889</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-8.136081623872638</v>
+      </c>
+      <c r="C145" t="n">
+        <v>114.0583202398284</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E145" t="n">
+        <v>14</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0.157088414962487</v>
+      </c>
+      <c r="H145" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>3.809983155864761</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45242.09166666667</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-8.15825691576693</v>
+      </c>
+      <c r="C146" t="n">
+        <v>112.8532960600004</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E146" t="n">
+        <v>50</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0.3004890335102908</v>
+      </c>
+      <c r="H146" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>11.22842205964688</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45261.77708333333</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-7.971774103865976</v>
+      </c>
+      <c r="C147" t="n">
+        <v>112.3224092550433</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E147" t="n">
+        <v>52</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0.4389962624925822</v>
+      </c>
+      <c r="H147" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>8.171654758735027</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45262.40069444444</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-8.167381679616671</v>
+      </c>
+      <c r="C148" t="n">
+        <v>112.9021302980953</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>39</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0.4782900908887597</v>
+      </c>
+      <c r="H148" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>12.4517318607985</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45265.47847222222</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-8.009409976570982</v>
+      </c>
+      <c r="C149" t="n">
+        <v>112.9017607249276</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E149" t="n">
+        <v>57</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0.1649381937170184</v>
+      </c>
+      <c r="H149" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>6.477676397309183</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45267.27152777778</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-8.091893174518697</v>
+      </c>
+      <c r="C150" t="n">
+        <v>112.9310553404775</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E150" t="n">
+        <v>23</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0.7738190972925815</v>
+      </c>
+      <c r="H150" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>11.76730000598339</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45267.75694444445</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-8.181037299729541</v>
+      </c>
+      <c r="C151" t="n">
+        <v>114.0579560510015</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E151" t="n">
+        <v>31</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0.04152658371051649</v>
+      </c>
+      <c r="H151" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>5.51379296324624</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45271.20138888889</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-8.124755781246392</v>
+      </c>
+      <c r="C152" t="n">
+        <v>112.9575868888153</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>26</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0.6846137097947003</v>
+      </c>
+      <c r="H152" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>12.60364735127016</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45272.09791666667</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-8.101678265530204</v>
+      </c>
+      <c r="C153" t="n">
+        <v>112.9241676511685</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E153" t="n">
+        <v>13</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0.2503571591015952</v>
+      </c>
+      <c r="H153" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>4.013909564374382</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45292.27083333334</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-8.171100439510294</v>
+      </c>
+      <c r="C154" t="n">
+        <v>113.992620273323</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E154" t="n">
+        <v>66</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0.2407294176995326</v>
+      </c>
+      <c r="H154" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>10.17911112897746</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45294.18611111111</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-8.011470081902791</v>
+      </c>
+      <c r="C155" t="n">
+        <v>112.9760742996792</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E155" t="n">
+        <v>48</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0.05539727525076261</v>
+      </c>
+      <c r="H155" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>4.065144754733201</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45295.10902777778</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-7.92391401153015</v>
+      </c>
+      <c r="C156" t="n">
+        <v>112.9717646159504</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E156" t="n">
+        <v>20</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0.1647850758119408</v>
+      </c>
+      <c r="H156" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>4.554008274560286</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45296.64097222222</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-8.066268837962369</v>
+      </c>
+      <c r="C157" t="n">
+        <v>112.8871539780044</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E157" t="n">
+        <v>13</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0.3979834865783484</v>
+      </c>
+      <c r="H157" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>7.010527126699311</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45297.55</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-7.873646567842082</v>
+      </c>
+      <c r="C158" t="n">
+        <v>112.9336596524013</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0.1154000906713484</v>
+      </c>
+      <c r="H158" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>4.507672072247456</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45301.32638888889</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-8.057896183471479</v>
+      </c>
+      <c r="C159" t="n">
+        <v>114.2442270613288</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="E159" t="n">
+        <v>10</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0.5098130692164109</v>
+      </c>
+      <c r="H159" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>6.372127189100351</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45301.82708333333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-8.105102068961225</v>
+      </c>
+      <c r="C160" t="n">
+        <v>112.8616104178472</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E160" t="n">
+        <v>31</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0.1044816757140225</v>
+      </c>
+      <c r="H160" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>4.657187202748844</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45302.00347222222</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-8.000325151151841</v>
+      </c>
+      <c r="C161" t="n">
+        <v>112.3036940556044</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0.4106335357877664</v>
+      </c>
+      <c r="H161" t="n">
+        <v>41.06</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>12.35253427013556</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45324.04583333333</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-7.912199358679215</v>
+      </c>
+      <c r="C162" t="n">
+        <v>112.2966694936779</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0.3016477790899255</v>
+      </c>
+      <c r="H162" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>5.326687734368382</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45327.56736111111</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-7.937471372250961</v>
+      </c>
+      <c r="C163" t="n">
+        <v>112.9825023363517</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0.261235484213491</v>
+      </c>
+      <c r="H163" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>4.391669388836384</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45328.4</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-8.047225075442757</v>
+      </c>
+      <c r="C164" t="n">
+        <v>114.2877632761703</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0.471116762795367</v>
+      </c>
+      <c r="H164" t="n">
+        <v>47.11</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>10.14243101866829</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45329.52638888889</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-8.100219396753372</v>
+      </c>
+      <c r="C165" t="n">
+        <v>114.0504285498141</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E165" t="n">
+        <v>44</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0.3740531054307709</v>
+      </c>
+      <c r="H165" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>9.945188256743686</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45331.05972222222</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-8.104540443764295</v>
+      </c>
+      <c r="C166" t="n">
+        <v>114.037395294935</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0.2551888350351387</v>
+      </c>
+      <c r="H166" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>6.417344965326341</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45352.19166666667</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-7.88777437761002</v>
+      </c>
+      <c r="C167" t="n">
+        <v>113.0202211455498</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E167" t="n">
+        <v>63</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0.1540268873258467</v>
+      </c>
+      <c r="H167" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>8.164372606269675</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45353.18680555555</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-7.936634969137002</v>
+      </c>
+      <c r="C168" t="n">
+        <v>112.3163079795432</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0.1334364914087461</v>
+      </c>
+      <c r="H168" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45358.37083333333</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-8.157806450861123</v>
+      </c>
+      <c r="C169" t="n">
+        <v>114.0981533961888</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>68</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0.01577167762630575</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>6.310014496357405</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45359.41180555556</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-8.045121035454324</v>
+      </c>
+      <c r="C170" t="n">
+        <v>114.1891470906485</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E170" t="n">
+        <v>49</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0.2670076830358885</v>
+      </c>
+      <c r="H170" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>8.125270198701706</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45385.27569444444</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-7.998494662672212</v>
+      </c>
+      <c r="C171" t="n">
+        <v>114.1833782534553</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0.2778221232031339</v>
+      </c>
+      <c r="H171" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>3.709172199902539</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45385.97430555556</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-8.042034789585774</v>
+      </c>
+      <c r="C172" t="n">
+        <v>112.9476496505739</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E172" t="n">
+        <v>55</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0.2998788628417622</v>
+      </c>
+      <c r="H172" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>8.645688108868221</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45389.91875</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-8.024959842315578</v>
+      </c>
+      <c r="C173" t="n">
+        <v>114.2371072727017</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E173" t="n">
+        <v>58</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0.01524481057001504</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>3.629719361541102</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45390.91805555556</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-8.137549281316113</v>
+      </c>
+      <c r="C174" t="n">
+        <v>112.86153844192</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E174" t="n">
+        <v>42</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0.240141370224693</v>
+      </c>
+      <c r="H174" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>8.259129383810546</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45391.20486111111</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-8.00847029556742</v>
+      </c>
+      <c r="C175" t="n">
+        <v>114.2071911455769</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>44</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0.3775429603080981</v>
+      </c>
+      <c r="H175" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>8.399910239795863</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45391.65625</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-8.131073633563181</v>
+      </c>
+      <c r="C176" t="n">
+        <v>112.9070300732996</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E176" t="n">
+        <v>30</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0.2835293120816862</v>
+      </c>
+      <c r="H176" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>6.079918206812155</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45394.325</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-8.023803246885523</v>
+      </c>
+      <c r="C177" t="n">
+        <v>114.2750934554324</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E177" t="n">
+        <v>51</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0.3671223481953692</v>
+      </c>
+      <c r="H177" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>11.29402348688447</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45394.42430555556</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-8.061606008368768</v>
+      </c>
+      <c r="C178" t="n">
+        <v>114.249179533029</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E178" t="n">
+        <v>16</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0.06865116092934762</v>
+      </c>
+      <c r="H178" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45413.8625</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-7.990460546655592</v>
+      </c>
+      <c r="C179" t="n">
+        <v>114.2506800972694</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E179" t="n">
+        <v>23</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0.3192776159096441</v>
+      </c>
+      <c r="H179" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>7.306159040023696</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45415.15</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-8.132016714790231</v>
+      </c>
+      <c r="C180" t="n">
+        <v>114.1071615649905</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E180" t="n">
+        <v>17</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0.002612135008421023</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>3.942877765533111</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45419.15208333333</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-8.078093275306403</v>
+      </c>
+      <c r="C181" t="n">
+        <v>113.9782563164193</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E181" t="n">
+        <v>60</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0.04977932115884454</v>
+      </c>
+      <c r="H181" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>6.294668832849008</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45420.30277777778</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-8.111058122088533</v>
+      </c>
+      <c r="C182" t="n">
+        <v>114.0234304885134</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0.01364436811860543</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45422.78472222222</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-8.139932802609385</v>
+      </c>
+      <c r="C183" t="n">
+        <v>114.0330135952841</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>64</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0.1432594059246025</v>
+      </c>
+      <c r="H183" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>6.078038102441926</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45448.3</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-7.899155800687413</v>
+      </c>
+      <c r="C184" t="n">
+        <v>112.9597841791072</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E184" t="n">
+        <v>48</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0.04187713888760976</v>
+      </c>
+      <c r="H184" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>3.731295885420626</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45450.54305555556</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-7.946448430837619</v>
+      </c>
+      <c r="C185" t="n">
+        <v>112.9133778900966</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0.07024196331474312</v>
+      </c>
+      <c r="H185" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>3.195517173483063</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45450.67222222222</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-7.926634661970374</v>
+      </c>
+      <c r="C186" t="n">
+        <v>112.9345097825733</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0.5737945304364626</v>
+      </c>
+      <c r="H186" t="n">
+        <v>57.38</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>7.025514815575873</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45454.07777777778</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-7.885421309541607</v>
+      </c>
+      <c r="C187" t="n">
+        <v>112.9413922352967</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0.1064929397212791</v>
+      </c>
+      <c r="H187" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>4.507833499121743</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45454.69097222222</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-7.936451415086966</v>
+      </c>
+      <c r="C188" t="n">
+        <v>112.3312659874719</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E188" t="n">
+        <v>16</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0.2121687958187882</v>
+      </c>
+      <c r="H188" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>4.100756651580857</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45455.09444444445</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-8.155369549627311</v>
+      </c>
+      <c r="C189" t="n">
+        <v>114.1041956880467</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E189" t="n">
+        <v>40</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0109837071724535</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>3.036401315867305</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45474.53680555556</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-7.995608560136224</v>
+      </c>
+      <c r="C190" t="n">
+        <v>112.9999744324958</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E190" t="n">
+        <v>51</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0.2622813972034235</v>
+      </c>
+      <c r="H190" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>9.381013170283561</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45476.83055555556</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-8.117418964405903</v>
+      </c>
+      <c r="C191" t="n">
+        <v>114.055986437442</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E191" t="n">
+        <v>17</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0.1484592764531439</v>
+      </c>
+      <c r="H191" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>4.001562757784491</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45477.10416666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-7.879116444357189</v>
+      </c>
+      <c r="C192" t="n">
+        <v>113.0031404585866</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E192" t="n">
+        <v>10</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0.1913107223137243</v>
+      </c>
+      <c r="H192" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>6.171820802262453</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45477.35555555556</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-8.201980340099418</v>
+      </c>
+      <c r="C193" t="n">
+        <v>113.9774223139899</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E193" t="n">
+        <v>31</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0.030236616202326</v>
+      </c>
+      <c r="H193" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>3.048451977028316</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45478.57083333333</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-7.947468809443454</v>
+      </c>
+      <c r="C194" t="n">
+        <v>112.9665928581781</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0.2570960904589884</v>
+      </c>
+      <c r="H194" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>4.52460778625515</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45478.86180555556</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-7.94482118730232</v>
+      </c>
+      <c r="C195" t="n">
+        <v>112.3020236430523</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E195" t="n">
+        <v>63</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0.2053361443538863</v>
+      </c>
+      <c r="H195" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>5.350121820377176</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45483.73472222222</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-8.059335867095299</v>
+      </c>
+      <c r="C196" t="n">
+        <v>112.8809903511922</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E196" t="n">
+        <v>38</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0.1381904285920542</v>
+      </c>
+      <c r="H196" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>5.590943023114248</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45484.69513888889</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-8.155361561797658</v>
+      </c>
+      <c r="C197" t="n">
+        <v>112.8831020212976</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E197" t="n">
+        <v>37</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0.4547095437526627</v>
+      </c>
+      <c r="H197" t="n">
+        <v>45.47</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>12.03517052988186</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45485.95694444444</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-8.001400340359179</v>
+      </c>
+      <c r="C198" t="n">
+        <v>114.1844617068325</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="E198" t="n">
+        <v>37</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0.3465929828451624</v>
+      </c>
+      <c r="H198" t="n">
+        <v>34.66</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>10.18032333506742</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45505.54097222222</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-8.106953539967042</v>
+      </c>
+      <c r="C199" t="n">
+        <v>112.9164933687603</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E199" t="n">
+        <v>16</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0.03850457392079741</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45505.78819444445</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-7.981639707300221</v>
+      </c>
+      <c r="C200" t="n">
+        <v>112.2604296339365</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E200" t="n">
+        <v>18</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0.5004101595535625</v>
+      </c>
+      <c r="H200" t="n">
+        <v>50.04</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>11.76611202028183</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45508.55763888889</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-7.875605907080275</v>
+      </c>
+      <c r="C201" t="n">
+        <v>112.3333353686779</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E201" t="n">
+        <v>54</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0.3494858201380476</v>
+      </c>
+      <c r="H201" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>10.2935625998784</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45509.1125</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-8.129115185572246</v>
+      </c>
+      <c r="C202" t="n">
+        <v>114.0276323217901</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E202" t="n">
+        <v>61</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0.1005236780703721</v>
+      </c>
+      <c r="H202" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>4.533290156253091</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45514.2875</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-8.145588642954481</v>
+      </c>
+      <c r="C203" t="n">
+        <v>112.8480074729467</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E203" t="n">
+        <v>12</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0.4021761967740466</v>
+      </c>
+      <c r="H203" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>10.31874925101525</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45514.46388888889</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-8.100072399010175</v>
+      </c>
+      <c r="C204" t="n">
+        <v>114.0222542990544</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0.2206748431316255</v>
+      </c>
+      <c r="H204" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>4.312894344364284</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45538.6</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-7.961493999485507</v>
+      </c>
+      <c r="C205" t="n">
+        <v>112.2578805255727</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E205" t="n">
+        <v>23</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0.1731801362112249</v>
+      </c>
+      <c r="H205" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>4.949054919691271</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45539.71805555555</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-8.047780712533264</v>
+      </c>
+      <c r="C206" t="n">
+        <v>114.2289997662832</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E206" t="n">
+        <v>60</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0.02811569328295598</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45544.85069444445</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-7.923581519732746</v>
+      </c>
+      <c r="C207" t="n">
+        <v>112.3206222390443</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E207" t="n">
+        <v>15</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0.06084946355711635</v>
+      </c>
+      <c r="H207" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45567.77638888889</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-7.938074741384081</v>
+      </c>
+      <c r="C208" t="n">
+        <v>112.9636255133159</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0.05967327566094053</v>
+      </c>
+      <c r="H208" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45569.96388888889</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-8.097614479005651</v>
+      </c>
+      <c r="C209" t="n">
+        <v>112.9321400389816</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E209" t="n">
+        <v>10</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0.4394285600157854</v>
+      </c>
+      <c r="H209" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>5.577900226201768</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45572.07291666666</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-7.947869395800644</v>
+      </c>
+      <c r="C210" t="n">
+        <v>112.9017259205199</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E210" t="n">
+        <v>37</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0.09071075213670597</v>
+      </c>
+      <c r="H210" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>3.54793710157589</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45599.10555555556</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-7.942235453522716</v>
+      </c>
+      <c r="C211" t="n">
+        <v>112.3098221374572</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kelud</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0.2768705292657103</v>
+      </c>
+      <c r="H211" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45601.74930555555</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-8.120151300793035</v>
+      </c>
+      <c r="C212" t="n">
+        <v>112.9147306772958</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E212" t="n">
+        <v>14</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0.1830372431611495</v>
+      </c>
+      <c r="H212" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>3.024186000054655</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45602.04861111111</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-8.094513347391068</v>
+      </c>
+      <c r="C213" t="n">
+        <v>114.1842956049391</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" t="n">
+        <v>100</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Terdampak</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>12.53551579157526</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45602.31597222222</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-8.134050823519653</v>
+      </c>
+      <c r="C214" t="n">
+        <v>114.0573953649162</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E214" t="n">
+        <v>17</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45604.12291666667</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-8.137638753693381</v>
+      </c>
+      <c r="C215" t="n">
+        <v>114.0252082783279</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E215" t="n">
+        <v>8</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0.1654142119307644</v>
+      </c>
+      <c r="H215" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>3.749525741452497</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45605.26944444444</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-8.103661798037695</v>
+      </c>
+      <c r="C216" t="n">
+        <v>112.8851851208942</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E216" t="n">
+        <v>27</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0.4135981451528983</v>
+      </c>
+      <c r="H216" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>8.625962712021147</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45606.67083333333</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-8.055046696273839</v>
+      </c>
+      <c r="C217" t="n">
+        <v>114.2864502479379</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="E217" t="n">
+        <v>7</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0.5552135812350865</v>
+      </c>
+      <c r="H217" t="n">
+        <v>55.52</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>6.535765520002013</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45607.54930555556</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-8.118883886513331</v>
+      </c>
+      <c r="C218" t="n">
+        <v>112.8695337660423</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E218" t="n">
+        <v>10</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0.5720291659555267</v>
+      </c>
+      <c r="H218" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>8.747254479728827</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45627.375</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-7.958204808689944</v>
+      </c>
+      <c r="C219" t="n">
+        <v>112.948087423416</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E219" t="n">
+        <v>10</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0.4551514012014435</v>
+      </c>
+      <c r="H219" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>6.962528064739082</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45632.81041666667</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-8.094698862038371</v>
+      </c>
+      <c r="C220" t="n">
+        <v>114.2346524240599</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0.3415333426449566</v>
+      </c>
+      <c r="H220" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>6.346528493855581</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45634.02291666667</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-7.933562856492894</v>
+      </c>
+      <c r="C221" t="n">
+        <v>112.9456454024512</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Bromo</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0.4205131375579924</v>
+      </c>
+      <c r="H221" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>5.048182879602023</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45634.17916666667</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-8.100202039144852</v>
+      </c>
+      <c r="C222" t="n">
+        <v>112.8586354761092</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E222" t="n">
+        <v>26</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Semeru</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0.128689020634147</v>
+      </c>
+      <c r="H222" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>5.164176720745996</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45635.83055555556</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-8.092062379387132</v>
+      </c>
+      <c r="C223" t="n">
+        <v>114.2284373373697</v>
+      </c>
+      <c r="D223" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>39</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0.3341043536413995</v>
+      </c>
+      <c r="H223" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>7.539010540783301</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>46002.14027777778</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C224" t="n">
+        <v>114.15</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0.0660817531891143</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>46002.14027777778</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="C225" t="n">
+        <v>114.15</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0.0769510623799507</v>
+      </c>
+      <c r="H225" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>46002.91805555556</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="C226" t="n">
+        <v>114.16</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>6</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0.05734848192339206</v>
+      </c>
+      <c r="H226" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>46002.91805555556</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="C227" t="n">
+        <v>114.16</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>6</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0.06504939326732366</v>
+      </c>
+      <c r="H227" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>46003.14027777778</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-8</v>
+      </c>
+      <c r="C228" t="n">
+        <v>114.19</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>11</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0.2780946737792299</v>
+      </c>
+      <c r="H228" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>46006.00833333333</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C229" t="n">
+        <v>114.15</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E229" t="n">
+        <v>11</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0.07071089923269151</v>
+      </c>
+      <c r="H229" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>46006.00833333333</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="C230" t="n">
+        <v>114.15</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Ijen</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0.0628586638446888</v>
+      </c>
+      <c r="H230" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>46006.86041666667</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B231" t="n">
         <v>-7.96</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C231" t="n">
         <v>114.15</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D231" t="n">
         <v>2.5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E231" t="n">
         <v>10</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>50</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Aman</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>4.113694388544492</v>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Raung</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0.06242493148105454</v>
+      </c>
+      <c r="H231" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>3.393674346971149</v>
       </c>
     </row>
   </sheetData>
